--- a/simulator/grid.xlsx
+++ b/simulator/grid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Glasgow\Sem2\CSC1008\1008-DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Glasgow\Sem2\CSC1008\1008-DSA\simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B46B029-C3F8-4E15-9CD3-B72EC1F18A12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA0592-E69A-4D5B-9042-4E63B98CD6D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F99783E2-1273-45A2-AD5E-042A8546BC4F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>%</t>
   </si>
@@ -34,24 +34,6 @@
   </si>
   <si>
     <t>level</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
 </sst>
 </file>
@@ -89,7 +71,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABC5D39-1E3F-4EA5-8C66-B55EE894F3A7}">
   <dimension ref="A1:CL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BB41" sqref="BB41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -437,45 +419,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1" s="3"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
-      <c r="AJ1" t="s">
-        <v>3</v>
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3">
+        <v>1</v>
+      </c>
+      <c r="N1" s="3">
+        <v>1</v>
+      </c>
+      <c r="O1" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>1</v>
+      </c>
+      <c r="R1" s="3">
+        <v>1</v>
+      </c>
+      <c r="S1" s="3">
+        <v>1</v>
+      </c>
+      <c r="T1" s="3">
+        <v>1</v>
+      </c>
+      <c r="U1" s="3">
+        <v>1</v>
+      </c>
+      <c r="V1" s="3">
+        <v>1</v>
+      </c>
+      <c r="W1" s="3">
+        <v>1</v>
+      </c>
+      <c r="X1" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>1</v>
       </c>
       <c r="AK1" s="1">
         <v>37</v>
@@ -617,42 +667,114 @@
       <c r="CL1" s="1"/>
     </row>
     <row r="2" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2" s="3"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>1</v>
+      </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -709,42 +831,114 @@
       <c r="CL2" s="1"/>
     </row>
     <row r="3" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3" s="3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1</v>
+      </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
@@ -801,42 +995,114 @@
       <c r="CL3" s="1"/>
     </row>
     <row r="4" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4" s="3"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>1</v>
+      </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -893,42 +1159,114 @@
       <c r="CL4" s="1"/>
     </row>
     <row r="5" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5" s="3"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>1</v>
+      </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
@@ -993,42 +1331,114 @@
       <c r="CL5" s="1"/>
     </row>
     <row r="6" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6" s="3"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>1</v>
+      </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
@@ -1085,42 +1495,114 @@
       <c r="CL6" s="1"/>
     </row>
     <row r="7" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" s="3"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>1</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
@@ -1177,42 +1659,114 @@
       <c r="CL7" s="1"/>
     </row>
     <row r="8" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8" s="3"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>1</v>
+      </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
@@ -1269,42 +1823,114 @@
       <c r="CL8" s="1"/>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9" s="3"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>1</v>
+      </c>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -1361,42 +1987,114 @@
       <c r="CL9" s="1"/>
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10" s="3"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>1</v>
+      </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -1453,42 +2151,114 @@
       <c r="CL10" s="1"/>
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11" s="3"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>1</v>
+      </c>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
@@ -1545,42 +2315,114 @@
       <c r="CL11" s="1"/>
     </row>
     <row r="12" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12" s="3"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>1</v>
+      </c>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
@@ -1637,42 +2479,114 @@
       <c r="CL12" s="1"/>
     </row>
     <row r="13" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>1</v>
+      </c>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
@@ -1729,42 +2643,114 @@
       <c r="CL13" s="1"/>
     </row>
     <row r="14" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>1</v>
+      </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -1821,42 +2807,114 @@
       <c r="CL14" s="1"/>
     </row>
     <row r="15" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15"/>
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>1</v>
+      </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
@@ -1913,42 +2971,114 @@
       <c r="CL15" s="1"/>
     </row>
     <row r="16" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>1</v>
+      </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -2005,42 +3135,114 @@
       <c r="CL16" s="1"/>
     </row>
     <row r="17" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>1</v>
+      </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -2097,42 +3299,114 @@
       <c r="CL17" s="1"/>
     </row>
     <row r="18" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>1</v>
+      </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -2189,42 +3463,114 @@
       <c r="CL18" s="1"/>
     </row>
     <row r="19" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19"/>
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>1</v>
+      </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
@@ -2281,42 +3627,114 @@
       <c r="CL19" s="1"/>
     </row>
     <row r="20" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>1</v>
+      </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
@@ -2373,42 +3791,114 @@
       <c r="CL20" s="1"/>
     </row>
     <row r="21" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21"/>
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>1</v>
+      </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
@@ -2465,42 +3955,114 @@
       <c r="CL21" s="1"/>
     </row>
     <row r="22" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
-      <c r="AG22"/>
-      <c r="AH22"/>
-      <c r="AI22"/>
-      <c r="AJ22"/>
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>1</v>
+      </c>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
@@ -2557,42 +4119,114 @@
       <c r="CL22" s="1"/>
     </row>
     <row r="23" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23" s="3"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
-      <c r="AH23"/>
-      <c r="AI23"/>
-      <c r="AJ23"/>
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>1</v>
+      </c>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
@@ -2649,42 +4283,114 @@
       <c r="CL23" s="1"/>
     </row>
     <row r="24" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24" s="3"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
-      <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24"/>
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>1</v>
+      </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
@@ -2741,42 +4447,114 @@
       <c r="CL24" s="1"/>
     </row>
     <row r="25" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25" s="3"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25"/>
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>1</v>
+      </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
@@ -2833,42 +4611,114 @@
       <c r="CL25" s="1"/>
     </row>
     <row r="26" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26" s="3"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>1</v>
+      </c>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
@@ -2925,42 +4775,114 @@
       <c r="CL26" s="1"/>
     </row>
     <row r="27" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27" s="3"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>1</v>
+      </c>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
@@ -3017,42 +4939,114 @@
       <c r="CL27" s="1"/>
     </row>
     <row r="28" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28" s="3"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>1</v>
+      </c>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -3109,42 +5103,114 @@
       <c r="CL28" s="1"/>
     </row>
     <row r="29" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29" s="3"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>1</v>
+      </c>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
@@ -3201,42 +5267,114 @@
       <c r="CL29" s="1"/>
     </row>
     <row r="30" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30" s="3"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>1</v>
+      </c>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
@@ -3293,43 +5431,113 @@
       <c r="CL30" s="1"/>
     </row>
     <row r="31" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31" s="3"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31" t="s">
-        <v>8</v>
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>1</v>
       </c>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
@@ -3387,43 +5595,113 @@
       <c r="CL31" s="1"/>
     </row>
     <row r="32" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32" s="3"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32" t="s">
-        <v>7</v>
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>1</v>
       </c>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
@@ -3481,43 +5759,113 @@
       <c r="CL32" s="1"/>
     </row>
     <row r="33" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33" s="3"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33" t="s">
-        <v>6</v>
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>1</v>
       </c>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
@@ -3575,43 +5923,113 @@
       <c r="CL33" s="1"/>
     </row>
     <row r="34" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34" s="3"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34" t="s">
-        <v>5</v>
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>1</v>
       </c>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
@@ -3669,43 +6087,113 @@
       <c r="CL34" s="1"/>
     </row>
     <row r="35" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35" s="3"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35" t="s">
-        <v>4</v>
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>1</v>
       </c>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
@@ -3763,45 +6251,113 @@
       <c r="CL35" s="1"/>
     </row>
     <row r="36" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36" s="3"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36" t="s">
-        <v>3</v>
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3">
+        <v>1</v>
+      </c>
+      <c r="S36" s="3">
+        <v>1</v>
+      </c>
+      <c r="T36" s="3">
+        <v>1</v>
+      </c>
+      <c r="U36" s="3">
+        <v>1</v>
+      </c>
+      <c r="V36" s="3">
+        <v>1</v>
+      </c>
+      <c r="W36" s="3">
+        <v>1</v>
+      </c>
+      <c r="X36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>1</v>
       </c>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>

--- a/simulator/grid.xlsx
+++ b/simulator/grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Glasgow\Sem2\CSC1008\1008-DSA\simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA0592-E69A-4D5B-9042-4E63B98CD6D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7FA76B-0CA0-41DF-BE82-4CCC479302BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F99783E2-1273-45A2-AD5E-042A8546BC4F}"/>
   </bookViews>
@@ -56,7 +56,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,6 +75,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -88,11 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +417,7 @@
   <dimension ref="A1:CL53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ25" sqref="AQ25"/>
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4033,7 +4040,7 @@
       <c r="Z22" s="3">
         <v>1</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="4">
         <v>0</v>
       </c>
       <c r="AB22">
@@ -4188,7 +4195,7 @@
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="4">
         <v>0</v>
       </c>
       <c r="Y23" s="3">

--- a/simulator/grid.xlsx
+++ b/simulator/grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Glasgow\Sem2\CSC1008\1008-DSA\simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7FA76B-0CA0-41DF-BE82-4CCC479302BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25EC8F6-F88A-4B3F-B100-C0A862ABAA13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F99783E2-1273-45A2-AD5E-042A8546BC4F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +51,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,13 +78,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,7 +106,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +424,7 @@
   <dimension ref="A1:CL53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -427,112 +434,112 @@
   <sheetData>
     <row r="1" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S1" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="T1" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="U1" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="V1" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="W1" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X1" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="3">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="3">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1">
         <v>37</v>
@@ -677,34 +684,34 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
         <v>0</v>
       </c>
       <c r="L2" s="3">
@@ -713,37 +720,37 @@
       <c r="M2" s="3">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
         <v>0</v>
       </c>
       <c r="Y2" s="3">
@@ -752,31 +759,31 @@
       <c r="Z2" s="3">
         <v>1</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
         <v>0</v>
       </c>
       <c r="AJ2" s="3">
@@ -839,36 +846,36 @@
     </row>
     <row r="3" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>0</v>
       </c>
       <c r="L3" s="3">
@@ -877,37 +884,37 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
         <v>0</v>
       </c>
       <c r="Y3" s="3">
@@ -916,31 +923,31 @@
       <c r="Z3" s="3">
         <v>1</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
         <v>0</v>
       </c>
       <c r="AJ3" s="3">
@@ -1003,36 +1010,36 @@
     </row>
     <row r="4" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="3">
@@ -1041,37 +1048,37 @@
       <c r="M4" s="3">
         <v>1</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
         <v>0</v>
       </c>
       <c r="Y4" s="3">
@@ -1080,31 +1087,31 @@
       <c r="Z4" s="3">
         <v>1</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
         <v>0</v>
       </c>
       <c r="AJ4" s="3">
@@ -1167,36 +1174,36 @@
     </row>
     <row r="5" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <v>0</v>
       </c>
       <c r="L5" s="3">
@@ -1205,37 +1212,37 @@
       <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
         <v>0</v>
       </c>
       <c r="Y5" s="3">
@@ -1244,31 +1251,31 @@
       <c r="Z5" s="3">
         <v>1</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
         <v>0</v>
       </c>
       <c r="AJ5" s="3">
@@ -1339,36 +1346,36 @@
     </row>
     <row r="6" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="3">
@@ -1377,37 +1384,37 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
         <v>0</v>
       </c>
       <c r="Y6" s="3">
@@ -1416,31 +1423,31 @@
       <c r="Z6" s="3">
         <v>1</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
         <v>0</v>
       </c>
       <c r="AJ6" s="3">
@@ -1503,36 +1510,36 @@
     </row>
     <row r="7" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="3">
@@ -1541,37 +1548,37 @@
       <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
         <v>0</v>
       </c>
       <c r="Y7" s="3">
@@ -1580,31 +1587,31 @@
       <c r="Z7" s="3">
         <v>1</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
         <v>0</v>
       </c>
       <c r="AJ7" s="3">
@@ -1667,36 +1674,36 @@
     </row>
     <row r="8" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="3">
@@ -1705,37 +1712,37 @@
       <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
@@ -1744,31 +1751,31 @@
       <c r="Z8" s="3">
         <v>1</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
         <v>0</v>
       </c>
       <c r="AJ8" s="3">
@@ -1831,36 +1838,36 @@
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="3">
@@ -1869,37 +1876,37 @@
       <c r="M9" s="3">
         <v>1</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
         <v>0</v>
       </c>
       <c r="Y9" s="3">
@@ -1908,31 +1915,31 @@
       <c r="Z9" s="3">
         <v>1</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
         <v>0</v>
       </c>
       <c r="AJ9" s="3">
@@ -1995,36 +2002,36 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="3">
@@ -2033,37 +2040,37 @@
       <c r="M10" s="3">
         <v>1</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
         <v>0</v>
       </c>
       <c r="Y10" s="3">
@@ -2072,31 +2079,31 @@
       <c r="Z10" s="3">
         <v>1</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
         <v>0</v>
       </c>
       <c r="AJ10" s="3">
@@ -2159,36 +2166,36 @@
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>0</v>
       </c>
       <c r="L11" s="3">
@@ -2197,37 +2204,37 @@
       <c r="M11" s="3">
         <v>1</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
         <v>0</v>
       </c>
       <c r="Y11" s="3">
@@ -2236,31 +2243,31 @@
       <c r="Z11" s="3">
         <v>1</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
         <v>0</v>
       </c>
       <c r="AJ11" s="3">
@@ -2323,36 +2330,36 @@
     </row>
     <row r="12" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="3">
@@ -2361,37 +2368,37 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
         <v>0</v>
       </c>
       <c r="Y12" s="3">
@@ -2400,31 +2407,31 @@
       <c r="Z12" s="3">
         <v>1</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
         <v>0</v>
       </c>
       <c r="AJ12" s="3">
@@ -2487,36 +2494,36 @@
     </row>
     <row r="13" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>0</v>
       </c>
       <c r="L13" s="3">
@@ -2525,37 +2532,37 @@
       <c r="M13" s="3">
         <v>1</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
         <v>0</v>
       </c>
       <c r="Y13" s="3">
@@ -2564,31 +2571,31 @@
       <c r="Z13" s="3">
         <v>1</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
         <v>0</v>
       </c>
       <c r="AJ13" s="3">
@@ -2651,75 +2658,75 @@
     </row>
     <row r="14" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
@@ -2728,31 +2735,31 @@
       <c r="Z14" s="3">
         <v>1</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
         <v>0</v>
       </c>
       <c r="AJ14" s="3">
@@ -2815,75 +2822,75 @@
     </row>
     <row r="15" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
         <v>0</v>
       </c>
       <c r="Y15" s="3">
@@ -2892,31 +2899,31 @@
       <c r="Z15" s="3">
         <v>1</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
         <v>0</v>
       </c>
       <c r="AJ15" s="3">
@@ -2979,75 +2986,75 @@
     </row>
     <row r="16" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
         <v>0</v>
       </c>
       <c r="Y16" s="3">
@@ -3056,31 +3063,31 @@
       <c r="Z16" s="3">
         <v>1</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4">
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
@@ -3143,75 +3150,75 @@
     </row>
     <row r="17" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
         <v>0</v>
       </c>
       <c r="Y17" s="3">
@@ -3220,31 +3227,31 @@
       <c r="Z17" s="3">
         <v>1</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
         <v>0</v>
       </c>
       <c r="AJ17" s="3">
@@ -3307,75 +3314,75 @@
     </row>
     <row r="18" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
@@ -3384,31 +3391,31 @@
       <c r="Z18" s="3">
         <v>1</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4">
         <v>0</v>
       </c>
       <c r="AJ18" s="3">
@@ -3471,75 +3478,75 @@
     </row>
     <row r="19" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
         <v>0</v>
       </c>
       <c r="Y19" s="3">
@@ -3548,31 +3555,31 @@
       <c r="Z19" s="3">
         <v>1</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4">
         <v>0</v>
       </c>
       <c r="AJ19" s="3">
@@ -3635,75 +3642,75 @@
     </row>
     <row r="20" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
@@ -3712,31 +3719,31 @@
       <c r="Z20" s="3">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="4">
         <v>0</v>
       </c>
       <c r="AJ20" s="3">
@@ -3799,75 +3806,75 @@
     </row>
     <row r="21" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
         <v>0</v>
       </c>
       <c r="Y21" s="3">
@@ -3876,31 +3883,31 @@
       <c r="Z21" s="3">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4">
         <v>0</v>
       </c>
       <c r="AJ21" s="3">
@@ -3963,75 +3970,75 @@
     </row>
     <row r="22" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
@@ -4043,28 +4050,28 @@
       <c r="AA22" s="4">
         <v>0</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="4">
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
@@ -4127,36 +4134,36 @@
     </row>
     <row r="23" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
         <v>0</v>
       </c>
       <c r="L23" s="3">
@@ -4165,34 +4172,34 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
         <v>0</v>
       </c>
       <c r="X23" s="4">
@@ -4204,31 +4211,31 @@
       <c r="Z23" s="3">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="4">
         <v>0</v>
       </c>
       <c r="AJ23" s="3">
@@ -4291,36 +4298,36 @@
     </row>
     <row r="24" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="3">
@@ -4329,37 +4336,37 @@
       <c r="M24" s="3">
         <v>1</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
@@ -4368,31 +4375,31 @@
       <c r="Z24" s="3">
         <v>1</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
+      <c r="AA24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="4">
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
@@ -4455,36 +4462,36 @@
     </row>
     <row r="25" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
         <v>0</v>
       </c>
       <c r="L25" s="3">
@@ -4493,37 +4500,37 @@
       <c r="M25" s="3">
         <v>1</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
         <v>0</v>
       </c>
       <c r="Y25" s="3">
@@ -4532,31 +4539,31 @@
       <c r="Z25" s="3">
         <v>1</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="4">
         <v>0</v>
       </c>
       <c r="AJ25" s="3">
@@ -4619,36 +4626,36 @@
     </row>
     <row r="26" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
         <v>0</v>
       </c>
       <c r="L26" s="3">
@@ -4657,37 +4664,37 @@
       <c r="M26" s="3">
         <v>1</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
@@ -4696,31 +4703,31 @@
       <c r="Z26" s="3">
         <v>1</v>
       </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
+      <c r="AA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="4">
         <v>0</v>
       </c>
       <c r="AJ26" s="3">
@@ -4783,36 +4790,36 @@
     </row>
     <row r="27" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
         <v>0</v>
       </c>
       <c r="L27" s="3">
@@ -4821,37 +4828,37 @@
       <c r="M27" s="3">
         <v>1</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
@@ -4860,31 +4867,31 @@
       <c r="Z27" s="3">
         <v>1</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
+      <c r="AA27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="4">
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
@@ -4947,36 +4954,36 @@
     </row>
     <row r="28" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
         <v>0</v>
       </c>
       <c r="L28" s="3">
@@ -4985,37 +4992,37 @@
       <c r="M28" s="3">
         <v>1</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
         <v>0</v>
       </c>
       <c r="Y28" s="3">
@@ -5024,31 +5031,31 @@
       <c r="Z28" s="3">
         <v>1</v>
       </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="4">
         <v>0</v>
       </c>
       <c r="AJ28" s="3">
@@ -5111,36 +5118,36 @@
     </row>
     <row r="29" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
         <v>0</v>
       </c>
       <c r="L29" s="3">
@@ -5149,37 +5156,37 @@
       <c r="M29" s="3">
         <v>1</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
@@ -5188,31 +5195,31 @@
       <c r="Z29" s="3">
         <v>1</v>
       </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
+      <c r="AA29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="4">
         <v>0</v>
       </c>
       <c r="AJ29" s="3">
@@ -5275,36 +5282,36 @@
     </row>
     <row r="30" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
         <v>0</v>
       </c>
       <c r="L30" s="3">
@@ -5313,37 +5320,37 @@
       <c r="M30" s="3">
         <v>1</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
         <v>0</v>
       </c>
       <c r="Y30" s="3">
@@ -5352,31 +5359,31 @@
       <c r="Z30" s="3">
         <v>1</v>
       </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
+      <c r="AA30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="4">
         <v>0</v>
       </c>
       <c r="AJ30" s="3">
@@ -5439,36 +5446,36 @@
     </row>
     <row r="31" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
         <v>0</v>
       </c>
       <c r="L31" s="3">
@@ -5477,37 +5484,37 @@
       <c r="M31" s="3">
         <v>1</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
         <v>0</v>
       </c>
       <c r="Y31" s="3">
@@ -5516,31 +5523,31 @@
       <c r="Z31" s="3">
         <v>1</v>
       </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="4">
         <v>0</v>
       </c>
       <c r="AJ31" s="3">
@@ -5603,36 +5610,36 @@
     </row>
     <row r="32" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
         <v>0</v>
       </c>
       <c r="L32" s="3">
@@ -5641,37 +5648,37 @@
       <c r="M32" s="3">
         <v>1</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
@@ -5680,31 +5687,31 @@
       <c r="Z32" s="3">
         <v>1</v>
       </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
+      <c r="AA32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="4">
         <v>0</v>
       </c>
       <c r="AJ32" s="3">
@@ -5767,36 +5774,36 @@
     </row>
     <row r="33" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
         <v>0</v>
       </c>
       <c r="L33" s="3">
@@ -5805,37 +5812,37 @@
       <c r="M33" s="3">
         <v>1</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
@@ -5844,31 +5851,31 @@
       <c r="Z33" s="3">
         <v>1</v>
       </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
+      <c r="AA33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="4">
         <v>0</v>
       </c>
       <c r="AJ33" s="3">
@@ -5931,36 +5938,36 @@
     </row>
     <row r="34" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
         <v>0</v>
       </c>
       <c r="L34" s="3">
@@ -5969,37 +5976,37 @@
       <c r="M34" s="3">
         <v>1</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0</v>
+      </c>
+      <c r="X34" s="4">
         <v>0</v>
       </c>
       <c r="Y34" s="3">
@@ -6008,31 +6015,31 @@
       <c r="Z34" s="3">
         <v>1</v>
       </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
+      <c r="AA34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="4">
         <v>0</v>
       </c>
       <c r="AJ34" s="3">
@@ -6095,36 +6102,36 @@
     </row>
     <row r="35" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="3">
@@ -6133,37 +6140,37 @@
       <c r="M35" s="3">
         <v>1</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0</v>
+      </c>
+      <c r="X35" s="4">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
@@ -6172,31 +6179,31 @@
       <c r="Z35" s="3">
         <v>1</v>
       </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
+      <c r="AA35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="4">
         <v>0</v>
       </c>
       <c r="AJ35" s="3">
@@ -6259,7 +6266,7 @@
     </row>
     <row r="36" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>

--- a/simulator/grid.xlsx
+++ b/simulator/grid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Glasgow\Sem2\CSC1008\1008-DSA\simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25EC8F6-F88A-4B3F-B100-C0A862ABAA13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22700760-A3B6-4BD2-B2B8-7A67BFB49607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F99783E2-1273-45A2-AD5E-042A8546BC4F}"/>
+    <workbookView xWindow="21615" yWindow="2160" windowWidth="15405" windowHeight="16995" xr2:uid="{F99783E2-1273-45A2-AD5E-042A8546BC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,16 +97,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABC5D39-1E3F-4EA5-8C66-B55EE894F3A7}">
   <dimension ref="A1:CL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -434,112 +446,112 @@
   <sheetData>
     <row r="1" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I1" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K1" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L1" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M1" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N1" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O1" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P1" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R1" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="S1" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="T1" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U1" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V1" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="W1" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="X1" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y1" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AA1" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AB1" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AC1" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AD1" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AE1" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AF1" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="AG1" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AH1" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="AI1" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AJ1" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AK1" s="1">
         <v>37</v>
@@ -714,7 +726,7 @@
       <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="6">
         <v>1</v>
       </c>
       <c r="M2" s="3">
@@ -753,7 +765,7 @@
       <c r="X2" s="4">
         <v>0</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="4">
         <v>1</v>
       </c>
       <c r="Z2" s="3">
@@ -784,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="3">
         <v>1</v>
@@ -846,7 +858,7 @@
     </row>
     <row r="3" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -878,7 +890,7 @@
       <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>1</v>
       </c>
       <c r="M3" s="3">
@@ -917,7 +929,7 @@
       <c r="X3" s="4">
         <v>0</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="4">
         <v>1</v>
       </c>
       <c r="Z3" s="3">
@@ -948,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="3">
         <v>1</v>
@@ -1010,7 +1022,7 @@
     </row>
     <row r="4" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1042,7 +1054,7 @@
       <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>1</v>
       </c>
       <c r="M4" s="3">
@@ -1081,7 +1093,7 @@
       <c r="X4" s="4">
         <v>0</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="4">
         <v>1</v>
       </c>
       <c r="Z4" s="3">
@@ -1112,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="3">
         <v>1</v>
@@ -1174,7 +1186,7 @@
     </row>
     <row r="5" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -1206,7 +1218,7 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>1</v>
       </c>
       <c r="M5" s="3">
@@ -1245,7 +1257,7 @@
       <c r="X5" s="4">
         <v>0</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="4">
         <v>1</v>
       </c>
       <c r="Z5" s="3">
@@ -1276,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="3">
         <v>1</v>
@@ -1346,7 +1358,7 @@
     </row>
     <row r="6" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -1378,7 +1390,7 @@
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
       <c r="M6" s="3">
@@ -1417,7 +1429,7 @@
       <c r="X6" s="4">
         <v>0</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="4">
         <v>1</v>
       </c>
       <c r="Z6" s="3">
@@ -1448,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="3">
         <v>1</v>
@@ -1510,7 +1522,7 @@
     </row>
     <row r="7" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -1542,7 +1554,7 @@
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>1</v>
       </c>
       <c r="M7" s="3">
@@ -1581,7 +1593,7 @@
       <c r="X7" s="4">
         <v>0</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="4">
         <v>1</v>
       </c>
       <c r="Z7" s="3">
@@ -1612,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="3">
         <v>1</v>
@@ -1674,7 +1686,7 @@
     </row>
     <row r="8" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -1706,7 +1718,7 @@
       <c r="K8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>1</v>
       </c>
       <c r="M8" s="3">
@@ -1745,7 +1757,7 @@
       <c r="X8" s="4">
         <v>0</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="4">
         <v>1</v>
       </c>
       <c r="Z8" s="3">
@@ -1776,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="3">
         <v>1</v>
@@ -1838,7 +1850,7 @@
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -1870,7 +1882,7 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="6">
         <v>1</v>
       </c>
       <c r="M9" s="3">
@@ -1909,7 +1921,7 @@
       <c r="X9" s="4">
         <v>0</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="4">
         <v>1</v>
       </c>
       <c r="Z9" s="3">
@@ -1940,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="3">
         <v>1</v>
@@ -2002,7 +2014,7 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -2034,7 +2046,7 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>1</v>
       </c>
       <c r="M10" s="3">
@@ -2073,7 +2085,7 @@
       <c r="X10" s="4">
         <v>0</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="4">
         <v>1</v>
       </c>
       <c r="Z10" s="3">
@@ -2104,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="3">
         <v>1</v>
@@ -2166,7 +2178,7 @@
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -2198,7 +2210,7 @@
       <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <v>1</v>
       </c>
       <c r="M11" s="3">
@@ -2237,7 +2249,7 @@
       <c r="X11" s="4">
         <v>0</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="4">
         <v>1</v>
       </c>
       <c r="Z11" s="3">
@@ -2268,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="3">
         <v>1</v>
@@ -2330,7 +2342,7 @@
     </row>
     <row r="12" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -2362,7 +2374,7 @@
       <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="6">
         <v>1</v>
       </c>
       <c r="M12" s="3">
@@ -2401,7 +2413,7 @@
       <c r="X12" s="4">
         <v>0</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="4">
         <v>1</v>
       </c>
       <c r="Z12" s="3">
@@ -2432,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="3">
         <v>1</v>
@@ -2494,7 +2506,7 @@
     </row>
     <row r="13" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -2526,7 +2538,7 @@
       <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="7">
         <v>1</v>
       </c>
       <c r="M13" s="3">
@@ -2565,7 +2577,7 @@
       <c r="X13" s="4">
         <v>0</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="4">
         <v>1</v>
       </c>
       <c r="Z13" s="3">
@@ -2596,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="3">
         <v>1</v>
@@ -2658,7 +2670,7 @@
     </row>
     <row r="14" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -2729,7 +2741,7 @@
       <c r="X14" s="4">
         <v>0</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="4">
         <v>1</v>
       </c>
       <c r="Z14" s="3">
@@ -2760,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="3">
         <v>1</v>
@@ -2822,7 +2834,7 @@
     </row>
     <row r="15" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -2893,7 +2905,7 @@
       <c r="X15" s="4">
         <v>0</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="4">
         <v>1</v>
       </c>
       <c r="Z15" s="3">
@@ -2924,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="3">
         <v>1</v>
@@ -2986,7 +2998,7 @@
     </row>
     <row r="16" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -3057,7 +3069,7 @@
       <c r="X16" s="4">
         <v>0</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="4">
         <v>1</v>
       </c>
       <c r="Z16" s="3">
@@ -3088,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="3">
         <v>1</v>
@@ -3150,7 +3162,7 @@
     </row>
     <row r="17" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -3221,7 +3233,7 @@
       <c r="X17" s="4">
         <v>0</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="4">
         <v>1</v>
       </c>
       <c r="Z17" s="3">
@@ -3252,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="3">
         <v>1</v>
@@ -3314,7 +3326,7 @@
     </row>
     <row r="18" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -3385,7 +3397,7 @@
       <c r="X18" s="4">
         <v>0</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="4">
         <v>1</v>
       </c>
       <c r="Z18" s="3">
@@ -3416,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="3">
         <v>1</v>
@@ -3478,7 +3490,7 @@
     </row>
     <row r="19" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -3549,7 +3561,7 @@
       <c r="X19" s="4">
         <v>0</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="4">
         <v>1</v>
       </c>
       <c r="Z19" s="3">
@@ -3580,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="3">
         <v>1</v>
@@ -3642,7 +3654,7 @@
     </row>
     <row r="20" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -3713,7 +3725,7 @@
       <c r="X20" s="4">
         <v>0</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="4">
         <v>1</v>
       </c>
       <c r="Z20" s="3">
@@ -3744,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="3">
         <v>1</v>
@@ -3806,7 +3818,7 @@
     </row>
     <row r="21" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -3877,7 +3889,7 @@
       <c r="X21" s="4">
         <v>0</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="4">
         <v>1</v>
       </c>
       <c r="Z21" s="3">
@@ -3908,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="3">
         <v>1</v>
@@ -3970,7 +3982,7 @@
     </row>
     <row r="22" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -4041,7 +4053,7 @@
       <c r="X22" s="4">
         <v>0</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="4">
         <v>1</v>
       </c>
       <c r="Z22" s="3">
@@ -4072,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="3">
         <v>1</v>
@@ -4134,7 +4146,7 @@
     </row>
     <row r="23" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -4166,10 +4178,10 @@
       <c r="K23" s="4">
         <v>0</v>
       </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
         <v>1</v>
       </c>
       <c r="N23" s="4">
@@ -4205,7 +4217,7 @@
       <c r="X23" s="4">
         <v>0</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="4">
         <v>1</v>
       </c>
       <c r="Z23" s="3">
@@ -4236,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="3">
         <v>1</v>
@@ -4298,7 +4310,7 @@
     </row>
     <row r="24" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -4330,7 +4342,7 @@
       <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="4">
         <v>1</v>
       </c>
       <c r="M24" s="3">
@@ -4369,7 +4381,7 @@
       <c r="X24" s="4">
         <v>0</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="4">
         <v>1</v>
       </c>
       <c r="Z24" s="3">
@@ -4400,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="3">
         <v>1</v>
@@ -4462,7 +4474,7 @@
     </row>
     <row r="25" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -4494,7 +4506,7 @@
       <c r="K25" s="4">
         <v>0</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
         <v>1</v>
       </c>
       <c r="M25" s="3">
@@ -4533,7 +4545,7 @@
       <c r="X25" s="4">
         <v>0</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="4">
         <v>1</v>
       </c>
       <c r="Z25" s="3">
@@ -4564,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" s="3">
         <v>1</v>
@@ -4626,7 +4638,7 @@
     </row>
     <row r="26" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -4658,7 +4670,7 @@
       <c r="K26" s="4">
         <v>0</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="4">
         <v>1</v>
       </c>
       <c r="M26" s="3">
@@ -4697,7 +4709,7 @@
       <c r="X26" s="4">
         <v>0</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="4">
         <v>1</v>
       </c>
       <c r="Z26" s="3">
@@ -4728,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="3">
         <v>1</v>
@@ -4790,7 +4802,7 @@
     </row>
     <row r="27" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -4822,7 +4834,7 @@
       <c r="K27" s="4">
         <v>0</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="4">
         <v>1</v>
       </c>
       <c r="M27" s="3">
@@ -4861,7 +4873,7 @@
       <c r="X27" s="4">
         <v>0</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="4">
         <v>1</v>
       </c>
       <c r="Z27" s="3">
@@ -4892,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" s="3">
         <v>1</v>
@@ -4954,7 +4966,7 @@
     </row>
     <row r="28" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -4986,7 +4998,7 @@
       <c r="K28" s="4">
         <v>0</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="4">
         <v>1</v>
       </c>
       <c r="M28" s="3">
@@ -5025,7 +5037,7 @@
       <c r="X28" s="4">
         <v>0</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y28" s="4">
         <v>1</v>
       </c>
       <c r="Z28" s="3">
@@ -5056,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="3">
         <v>1</v>
@@ -5118,7 +5130,7 @@
     </row>
     <row r="29" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -5150,7 +5162,7 @@
       <c r="K29" s="4">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="4">
         <v>1</v>
       </c>
       <c r="M29" s="3">
@@ -5189,7 +5201,7 @@
       <c r="X29" s="4">
         <v>0</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="4">
         <v>1</v>
       </c>
       <c r="Z29" s="3">
@@ -5220,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="3">
         <v>1</v>
@@ -5282,7 +5294,7 @@
     </row>
     <row r="30" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -5314,7 +5326,7 @@
       <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="4">
         <v>1</v>
       </c>
       <c r="M30" s="3">
@@ -5353,7 +5365,7 @@
       <c r="X30" s="4">
         <v>0</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y30" s="4">
         <v>1</v>
       </c>
       <c r="Z30" s="3">
@@ -5384,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="3">
         <v>1</v>
@@ -5446,7 +5458,7 @@
     </row>
     <row r="31" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -5478,7 +5490,7 @@
       <c r="K31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="4">
         <v>1</v>
       </c>
       <c r="M31" s="3">
@@ -5517,7 +5529,7 @@
       <c r="X31" s="4">
         <v>0</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y31" s="4">
         <v>1</v>
       </c>
       <c r="Z31" s="3">
@@ -5548,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" s="3">
         <v>1</v>
@@ -5610,7 +5622,7 @@
     </row>
     <row r="32" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -5642,7 +5654,7 @@
       <c r="K32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="4">
         <v>1</v>
       </c>
       <c r="M32" s="3">
@@ -5681,7 +5693,7 @@
       <c r="X32" s="4">
         <v>0</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="4">
         <v>1</v>
       </c>
       <c r="Z32" s="3">
@@ -5712,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="3">
         <v>1</v>
@@ -5774,7 +5786,7 @@
     </row>
     <row r="33" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -5806,7 +5818,7 @@
       <c r="K33" s="4">
         <v>0</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="4">
         <v>1</v>
       </c>
       <c r="M33" s="3">
@@ -5845,7 +5857,7 @@
       <c r="X33" s="4">
         <v>0</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="4">
         <v>1</v>
       </c>
       <c r="Z33" s="3">
@@ -5876,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="3">
         <v>1</v>
@@ -5938,7 +5950,7 @@
     </row>
     <row r="34" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -5970,7 +5982,7 @@
       <c r="K34" s="4">
         <v>0</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="4">
         <v>1</v>
       </c>
       <c r="M34" s="3">
@@ -6009,7 +6021,7 @@
       <c r="X34" s="4">
         <v>0</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Y34" s="4">
         <v>1</v>
       </c>
       <c r="Z34" s="3">
@@ -6040,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="3">
         <v>1</v>
@@ -6102,109 +6114,109 @@
     </row>
     <row r="35" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
         <v>1</v>
       </c>
       <c r="M35" s="3">
         <v>1</v>
       </c>
       <c r="N35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="4">
         <v>1</v>
       </c>
       <c r="Z35" s="3">
         <v>1</v>
       </c>
       <c r="AA35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" s="3">
         <v>1</v>
@@ -6266,7 +6278,7 @@
     </row>
     <row r="36" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -6334,7 +6346,7 @@
       <c r="W36" s="3">
         <v>1</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X36" s="5">
         <v>1</v>
       </c>
       <c r="Y36" s="3">
